--- a/crypto.xlsx
+++ b/crypto.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,44 +475,44 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Days_Since_High_Last_7_Days</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Days_Since_Low_Last_7_Days</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>%_Diff_From_High_Last_7_Days</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>%_Diff_From_Low_Last_7_Days</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>High_Next_5_Days</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Low_Next_5_Days</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%_Diff_From_High_Next_5_Days</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>%_Diff_From_Low_Next_5_Days</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Days_Since_High_Last_7_Days</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Days_Since_Low_Last_7_Days</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -537,28 +537,28 @@
         <v>64754.69869913349</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>-0.2348838244910419</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.4869117429103225</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>64080.50178633876</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>60773.96060153672</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1.544143877253394</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>7.068876681932772</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -584,28 +584,28 @@
         <v>64754.69869913349</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>-0.6336628108448169</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>1.744003684051996</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>64080.50178633876</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>60403.41735330646</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.81446179949994</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>9.073337100581572</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -631,28 +631,28 @@
         <v>64754.69869913349</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0.9063123998057896</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1.464830056761163</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>64080.50178633876</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>60047.21023056539</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.532350960539311</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>9.419313131385215</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -678,28 +678,28 @@
         <v>64754.69869913349</v>
       </c>
       <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>-1.082458194469839</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>1.28446939450677</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>64080.50178633876</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>60047.21023056539</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>2.350092707000647</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>9.224812832426874</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -725,28 +725,28 @@
         <v>63449.59115410886</v>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>-4.275546019894116</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.03106642377012247</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>64080.50178633876</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>60047.21023056539</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.953798887841824</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>5.699003216422352</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -772,28 +772,28 @@
         <v>60773.96060153672</v>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>-8.313460917634959</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.02967751065139889</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>62871.84184813987</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>60047.21023056539</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-3.308070810134667</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.240335007642069</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -819,28 +819,28 @@
         <v>60403.41735330646</v>
       </c>
       <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>-8.320576967130284</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.6354958482095944</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>63794.84144487896</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>60047.21023056539</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-4.714429590226604</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1.232477461244878</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -866,28 +866,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>-8.167647343979322</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.40134244879215</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>63794.84144487896</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>60507.36373936207</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-4.555484584985169</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.6301936060579579</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -913,28 +913,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>-6.281162971545993</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>3.289514003244876</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>63794.84144487896</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>60486.87709708697</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-2.778233764798395</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>2.538723432697628</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -960,28 +960,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
         <v>-6.009907810567507</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>3.237577690632241</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>63794.84144487896</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>59019.10515218884</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-2.82711907607777</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>5.035962766606166</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1007,28 +1007,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
         <v>-4.434910467149381</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>4.286356117876297</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>63794.84144487896</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>59019.10515218884</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-1.839951191031464</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>6.103010776629578</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1054,28 +1054,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
         <v>-2.77636951142582</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>3.754012938741584</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>63274.42560251386</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>59019.10515218884</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-1.537801918032785</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>5.561394249068178</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1101,28 +1101,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
         <v>-2.64844430153712</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>3.427403810251336</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>63274.42560251386</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>59019.10515218884</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-1.847752847099717</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>5.229095632355783</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1148,28 +1148,28 @@
         <v>60047.21023056539</v>
       </c>
       <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
         <v>-4.931392334746262</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>1.001973765354075</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>66360.47670950771</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>59019.10515218884</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-8.606944176437365</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>2.761414913884672</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1195,28 +1195,28 @@
         <v>59019.10515218884</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-5.795799178891795</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>1.827061581621596</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>67435.51023225303</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>60138.20314704477</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-10.88164033865652</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-0.0678147943724107</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1242,28 +1242,28 @@
         <v>59019.10515218884</v>
       </c>
       <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
         <v>-2.131610029628407</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>5.787751348071476</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>67936.53148981073</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>62201.28043098085</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-8.098069128509291</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>0.3757218077413163</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1289,28 +1289,28 @@
         <v>59019.10515218884</v>
       </c>
       <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
         <v>-0.8157647712233179</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>7.210072804987622</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>67936.53148981073</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>62201.28043098085</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-6.86244320258844</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>1.725278264526698</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1336,28 +1336,28 @@
         <v>59019.10515218884</v>
       </c>
       <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
         <v>-1.767845662162109</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>6.180950975310292</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>68860.81979831123</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>62513.51208680969</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-8.994625258223637</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>0.2456029357134303</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1386,25 +1386,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>12.43897469876599</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>68860.81979831123</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>65294.84614058695</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-3.63100976161315</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>1.632028608546449</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1430,28 +1430,28 @@
         <v>59019.10515218884</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
         <v>-1.015719575729281</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>13.099909566073</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>68928.71558093466</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>66864.1449497314</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-3.160019751921816</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>-0.1698823726612931</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1477,28 +1477,28 @@
         <v>59019.10515218884</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
         <v>-0.3227817846707173</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>14.7378371230915</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>69227.74861744537</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>66864.1449497314</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-2.181934132753499</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>1.275870336687168</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1524,28 +1524,28 @@
         <v>60138.20314704477</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
         <v>-0.8491772063620454</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>12.00805216096049</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>69227.74861744537</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>66852.38488317322</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-2.698511370292223</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>0.7587538833797716</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1571,28 +1571,28 @@
         <v>62201.28043098085</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
         <v>-0.9482546763011498</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>9.656655589459339</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>69227.74861744537</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>65441.76998856602</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-1.473260048722589</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>4.226771168248825</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1618,28 +1618,28 @@
         <v>62201.28043098085</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
         <v>-0.8250973120890188</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>9.792998716242025</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>69227.74861744537</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>65441.76998856602</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-1.35075545723701</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>4.35636297276952</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1668,25 +1668,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>10.26210699091176</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>69227.74861744537</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>65441.76998856602</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.4319554549768375</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>5.328317973333972</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1712,28 +1712,28 @@
         <v>65294.84614058695</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
         <v>-2.441652418863109</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>3.434576556605289</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>68443.44970222126</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>65441.76998856602</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-1.323723581087728</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>3.202354750800867</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1759,28 +1759,28 @@
         <v>66852.38488317322</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-2.247673984441835</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>1.22561018580695</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>68443.44970222126</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>65441.76998856602</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-1.127522332410958</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>3.407555348181833</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1806,28 +1806,28 @@
         <v>65441.76998856602</v>
       </c>
       <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>-4.052456871026008</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>1.498361021632503</v>
       </c>
-      <c r="J29" t="n">
-        <v>68968.77774925514</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
+        <v>70078.87621953817</v>
+      </c>
+      <c r="M29" t="n">
         <v>66510.70501488034</v>
       </c>
-      <c r="L29" t="n">
-        <v>-3.69218343490443</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
+        <v>-5.217766686415024</v>
+      </c>
+      <c r="O29" t="n">
         <v>-0.1328824478998937</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1853,28 +1853,28 @@
         <v>65441.76998856602</v>
       </c>
       <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
         <v>-1.501153714751257</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>4.197263780227551</v>
       </c>
-      <c r="J30" t="n">
-        <v>68968.77774925514</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="M30" t="n">
         <v>66510.70501488034</v>
       </c>
-      <c r="L30" t="n">
-        <v>-1.131300390237295</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
+        <v>-6.967012455206587</v>
+      </c>
+      <c r="O30" t="n">
         <v>2.522644561022479</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1900,28 +1900,28 @@
         <v>65441.76998856602</v>
       </c>
       <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
         <v>-3.557434302820762</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>2.022021948249592</v>
       </c>
-      <c r="J31" t="n">
-        <v>68968.77774925514</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="M31" t="n">
         <v>66510.70501488034</v>
       </c>
-      <c r="L31" t="n">
-        <v>-3.195302106424674</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
+        <v>-8.909186740014635</v>
+      </c>
+      <c r="O31" t="n">
         <v>0.3823623973322825</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1947,28 +1947,28 @@
         <v>65441.76998856602</v>
       </c>
       <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
         <v>-3.189210202738794</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>2.411548781643821</v>
       </c>
-      <c r="J32" t="n">
-        <v>68968.77774925514</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="M32" t="n">
         <v>66877.16853130824</v>
       </c>
-      <c r="L32" t="n">
-        <v>-2.825695361644643</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
+        <v>-8.561395985010137</v>
+      </c>
+      <c r="O32" t="n">
         <v>0.2134684635106218</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1994,28 +1994,28 @@
         <v>65441.76998856602</v>
       </c>
       <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
         <v>-1.485399104619326</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>4.213929836019894</v>
       </c>
-      <c r="J33" t="n">
-        <v>68968.77774925514</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="M33" t="n">
         <v>67615.68544870683</v>
       </c>
-      <c r="L33" t="n">
-        <v>-1.115486623118725</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
+        <v>-6.952132093624154</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.8633422951390711</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2026,43 +2026,184 @@
         <v>67942.828513585</v>
       </c>
       <c r="C34" t="n">
-        <v>68968.77774925514</v>
+        <v>70078.87621953817</v>
       </c>
       <c r="D34" t="n">
         <v>67615.68544870683</v>
       </c>
       <c r="E34" t="n">
-        <v>68568.19751325126</v>
+        <v>70078.87621953817</v>
       </c>
       <c r="F34" t="n">
-        <v>68968.77774925514</v>
+        <v>70078.87621953817</v>
       </c>
       <c r="G34" t="n">
         <v>65441.76998856602</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.5808138828561537</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.77741895616743</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>68968.77774925514</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>67615.68544870683</v>
+        <v>7.085850874422174</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.5808138828561537</v>
+        <v>73295.00588659973</v>
       </c>
       <c r="M34" t="n">
-        <v>1.40871464693943</v>
+        <v>69752.77125564878</v>
       </c>
       <c r="N34" t="n">
+        <v>-4.387924699859461</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.4675154234291161</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B35" t="n">
+        <v>69752.77125564878</v>
+      </c>
+      <c r="C35" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="D35" t="n">
+        <v>69752.77125564878</v>
+      </c>
+      <c r="E35" t="n">
+        <v>72560.5752049622</v>
+      </c>
+      <c r="F35" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="G35" t="n">
+        <v>65441.76998856602</v>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="O34" t="n">
+      <c r="I35" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1.002020086844424</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.87807560467875</v>
+      </c>
+      <c r="L35" t="n">
+        <v>72859.56560197721</v>
+      </c>
+      <c r="M35" t="n">
+        <v>71771.66789667108</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.4103653302688716</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.099190434625125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B36" t="n">
+        <v>72507.95245963264</v>
+      </c>
+      <c r="C36" t="n">
+        <v>72859.56560197721</v>
+      </c>
+      <c r="D36" t="n">
+        <v>71771.66789667108</v>
+      </c>
+      <c r="E36" t="n">
+        <v>72537.38974251907</v>
+      </c>
+      <c r="F36" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="G36" t="n">
+        <v>66510.70501488034</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1.033653159470137</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9.06122514607293</v>
+      </c>
+      <c r="L36" t="n">
+        <v>72519.57306330977</v>
+      </c>
+      <c r="M36" t="n">
+        <v>72194.06127433552</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02456809721389578</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.4755633110581093</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B37" t="n">
+        <v>72388.91590191633</v>
+      </c>
+      <c r="C37" t="n">
+        <v>72519.57306330977</v>
+      </c>
+      <c r="D37" t="n">
+        <v>72194.06127433552</v>
+      </c>
+      <c r="E37" t="n">
+        <v>72266.09895926531</v>
+      </c>
+      <c r="F37" t="n">
+        <v>73295.00588659973</v>
+      </c>
+      <c r="G37" t="n">
+        <v>66510.70501488034</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
         <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.403788586805384</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.65333474227543</v>
+      </c>
+      <c r="L37" t="n">
+        <v>72519.57306330977</v>
+      </c>
+      <c r="M37" t="n">
+        <v>72194.06127433552</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.3495250914166037</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.09978339444853876</v>
       </c>
     </row>
   </sheetData>
